--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>194530.2547727692</v>
+        <v>191798.6753109443</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.7722648804311</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>149.5382355489263</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,13 +713,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>144.3968844608071</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>228.0516997358839</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>161.6676065732861</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>156.127162662147</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>6.728407874396941</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>215.3925629449693</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>292.0322988577211</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>138.6464859782455</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>36.05850138270604</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>1.508245380440106e-12</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>99.97427419833663</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>62.84300698292839</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>23.10998325717172</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>185.3892167411514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>49.4874913789531</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826188928</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,16 +2722,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>38.05096575280767</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>21.63824106824953</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>766.0404291903644</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C2" t="n">
-        <v>397.0779122499527</v>
+        <v>546.109828622464</v>
       </c>
       <c r="D2" t="n">
-        <v>397.0779122499527</v>
+        <v>546.109828622464</v>
       </c>
       <c r="E2" t="n">
-        <v>207.4089578252748</v>
+        <v>546.109828622464</v>
       </c>
       <c r="F2" t="n">
-        <v>207.4089578252748</v>
+        <v>546.109828622464</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>532.1864245610549</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>204.9917045970577</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1916.245359491378</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1542.779601230298</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1152.640269254486</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4407,16 +4407,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>582.2735453571344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>582.2735453571344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>582.2735453571344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>582.2735453571344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>327.5890571512475</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W4" t="n">
-        <v>327.5890571512475</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1717.15289212512</v>
+        <v>709.2075429298498</v>
       </c>
       <c r="C5" t="n">
-        <v>1348.190375184708</v>
+        <v>709.2075429298498</v>
       </c>
       <c r="D5" t="n">
-        <v>1348.190375184708</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>962.4021225864637</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2090.6186503862</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X5" t="n">
-        <v>1717.15289212512</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="Y5" t="n">
-        <v>1717.15289212512</v>
+        <v>1095.807382993971</v>
       </c>
     </row>
     <row r="6">
@@ -4650,7 +4650,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782189</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>477.6272702879189</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1502.423112499891</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="C8" t="n">
-        <v>1133.460595559479</v>
+        <v>1623.65792847316</v>
       </c>
       <c r="D8" t="n">
-        <v>1133.460595559479</v>
+        <v>1265.39222986641</v>
       </c>
       <c r="E8" t="n">
-        <v>915.8923501605202</v>
+        <v>879.6039772681654</v>
       </c>
       <c r="F8" t="n">
-        <v>504.9064453709126</v>
+        <v>468.6180724785578</v>
       </c>
       <c r="G8" t="n">
-        <v>491.8590676477442</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="H8" t="n">
         <v>173.6359524202537</v>
@@ -4802,25 +4802,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>785.3786496953994</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1417.096460678711</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>1611.430673570693</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2482.349229285934</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.657526031085</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2228.657526031085</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1875.888870760971</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X8" t="n">
-        <v>1502.423112499891</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y8" t="n">
-        <v>1502.423112499891</v>
+        <v>1992.620445413572</v>
       </c>
     </row>
     <row r="9">
@@ -4887,16 +4887,16 @@
         <v>240.2100533406172</v>
       </c>
       <c r="L9" t="n">
-        <v>377.4396513563111</v>
+        <v>744.5715932067358</v>
       </c>
       <c r="M9" t="n">
-        <v>1017.985000823416</v>
+        <v>1385.11694267384</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.529400850426</v>
+        <v>2052.661342700851</v>
       </c>
       <c r="O9" t="n">
-        <v>2234.965409603149</v>
+        <v>2296.884955673627</v>
       </c>
       <c r="P9" t="n">
         <v>2405.574583200926</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>693.0381286025977</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C10" t="n">
-        <v>524.1019456746908</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>373.9853062623551</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>226.072212679962</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>226.072212679962</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>226.072212679962</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>913.8307077461278</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="T10" t="n">
-        <v>913.8307077461278</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="U10" t="n">
-        <v>913.8307077461278</v>
+        <v>679.5366885821171</v>
       </c>
       <c r="V10" t="n">
-        <v>913.8307077461278</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="W10" t="n">
-        <v>913.8307077461278</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="X10" t="n">
-        <v>913.8307077461278</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="Y10" t="n">
-        <v>693.0381286025977</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="11">
@@ -5030,10 +5030,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5045,13 +5045,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969308</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.8386896933887</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998271</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998271</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>194.8007783998271</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1437.269284565176</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1209.279733667159</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>988.4871545236284</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5264,22 +5264,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5294,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,22 +5352,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>554.5813165460164</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>385.6451336181095</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>235.5284942057738</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>957.0223605197863</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>736.2297813762561</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>768.5380889459567</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>599.6019060180498</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888043</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063201</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718105</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741046</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085244</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1480.630343879357</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817745</v>
+        <v>1191.213173842396</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>963.2236229443789</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.1865537761979</v>
+        <v>742.4310438008488</v>
       </c>
     </row>
     <row r="20">
@@ -5747,19 +5747,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
         <v>261.0127623330919</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6221,22 +6221,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2341.482060890433</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2052.406834234631</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,16 +6473,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>119.2902967703784</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969303</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6923,16 +6923,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6944,13 +6944,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1652.717886400351</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>2204.627616639638</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7163,28 +7163,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969308</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7366,16 +7366,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,37 +7400,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7491,25 +7491,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273903</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7786,16 +7786,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8298,10 +8298,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>35.04072454780376</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>243.4933181983577</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8535,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8544,10 +8544,10 @@
         <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>85.5669700040566</v>
       </c>
       <c r="P9" t="n">
-        <v>62.54499603078654</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>335.8949811863664</v>
       </c>
       <c r="E2" t="n">
-        <v>194.1581051918307</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>404.7851456864576</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.393080695934913</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>96.25160475629423</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788726</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>223.6799913536626</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.1847295890522</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>40.32043864788574</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>99.12798163925926</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.45968844823241</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>179.3544845744806</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>317255.8761406863</v>
+        <v>317255.8761406865</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923206</v>
       </c>
       <c r="D2" t="n">
         <v>348942.7521923202</v>
@@ -26323,31 +26323,31 @@
         <v>343037.3048682527</v>
       </c>
       <c r="F2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682526</v>
       </c>
       <c r="G2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="H2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="I2" t="n">
+        <v>343037.3048682527</v>
+      </c>
+      <c r="J2" t="n">
         <v>343037.3048682529</v>
       </c>
-      <c r="J2" t="n">
-        <v>343037.3048682528</v>
-      </c>
       <c r="K2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="L2" t="n">
+        <v>343037.3048682527</v>
+      </c>
+      <c r="M2" t="n">
+        <v>343037.3048682525</v>
+      </c>
+      <c r="N2" t="n">
         <v>343037.3048682529</v>
-      </c>
-      <c r="M2" t="n">
-        <v>343037.3048682529</v>
-      </c>
-      <c r="N2" t="n">
-        <v>343037.3048682526</v>
       </c>
       <c r="O2" t="n">
         <v>343037.3048682529</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>184756.2785481117</v>
       </c>
       <c r="E3" t="n">
         <v>771052.6913808064</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080583</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,37 +26427,37 @@
         <v>5677.536566682744</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682754</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682754</v>
       </c>
       <c r="J4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="K4" t="n">
+        <v>5677.536566682749</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5677.536566682753</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5677.536566682751</v>
+      </c>
+      <c r="N4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="L4" t="n">
+      <c r="O4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5677.536566682768</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-522938.6128876358</v>
+        <v>-523125.0062761745</v>
       </c>
       <c r="C6" t="n">
-        <v>56161.25866587777</v>
+        <v>56161.25866587783</v>
       </c>
       <c r="D6" t="n">
-        <v>-99642.5474279176</v>
+        <v>-99642.54742791766</v>
       </c>
       <c r="E6" t="n">
-        <v>-534815.4529031435</v>
+        <v>-534850.1908285792</v>
       </c>
       <c r="F6" t="n">
-        <v>236237.2384776629</v>
+        <v>236202.500552227</v>
       </c>
       <c r="G6" t="n">
-        <v>236237.238477663</v>
+        <v>236202.5005522271</v>
       </c>
       <c r="H6" t="n">
-        <v>236237.2384776629</v>
+        <v>236202.500552227</v>
       </c>
       <c r="I6" t="n">
-        <v>236237.238477663</v>
+        <v>236202.5005522273</v>
       </c>
       <c r="J6" t="n">
-        <v>59814.01928507003</v>
+        <v>59779.28135963442</v>
       </c>
       <c r="K6" t="n">
-        <v>236237.2384776628</v>
+        <v>236202.5005522271</v>
       </c>
       <c r="L6" t="n">
-        <v>236237.238477663</v>
+        <v>236202.5005522271</v>
       </c>
       <c r="M6" t="n">
-        <v>112028.7277696047</v>
+        <v>111993.9898441685</v>
       </c>
       <c r="N6" t="n">
-        <v>236237.2384776627</v>
+        <v>236202.5005522274</v>
       </c>
       <c r="O6" t="n">
-        <v>236237.238477663</v>
+        <v>236202.5005522272</v>
       </c>
       <c r="P6" t="n">
-        <v>236237.2384776631</v>
+        <v>236202.5005522276</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>215.7324361209785</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26984,19 +26984,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>18.78806043431661</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>2.090900055253826</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27433,13 +27433,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2.26830751935077</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>126.631341884799</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>245.2084391684253</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.5534663675808</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27856,19 +27856,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>166.5378071272925</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>120.8846050882157</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28026,13 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>66.71939592187312</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>250.202153275391</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31835,22 +31835,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>487.5039436775326</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,10 +31859,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,25 +32072,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>163.5723821283055</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>695.222208616788</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>565.6398038246476</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,19 +32783,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>233.9389431948335</v>
+        <v>208.6096528357818</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,22 +33020,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>232.1537035940586</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>604.245822599193</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,7 +33044,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338202</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>499.3768644016574</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,31 +33731,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,19 +33968,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>616.5397119226058</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>579.5299594447131</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>338.1309585028985</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,7 +34466,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>118.4378503807253</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>415.3812225589228</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
@@ -35264,10 +35264,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>246.6905181543199</v>
       </c>
       <c r="P9" t="n">
-        <v>172.3324985836136</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35483,22 +35483,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>356.1622315941992</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,10 +35507,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M14" t="n">
         <v>735.3001107902948</v>
@@ -35720,25 +35720,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>563.8804965334547</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>434.2980917413143</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36358,7 +36358,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36431,19 +36431,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>91.80490927281522</v>
+        <v>66.47561891376348</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,22 +36668,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>90.01966967204032</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>472.9041105158597</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,7 +36692,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394599</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>368.035152318324</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37616,19 +37616,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>477.9853321427316</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>206.7892464195652</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,7 +38114,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
